--- a/细分指标/交通细分指标.xlsx
+++ b/细分指标/交通细分指标.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>教育投入占比</t>
-  </si>
-  <si>
-    <t>师生比</t>
-  </si>
-  <si>
-    <t>公共图书馆占比</t>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>交通从业人员比例</t>
+  </si>
+  <si>
+    <t>公共交通</t>
   </si>
   <si>
     <t>上海市</t>
